--- a/tools/page_list.xlsx
+++ b/tools/page_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13000"/>
+    <workbookView windowWidth="28060" windowHeight="13000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="page_list" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>group</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>FontAwesome</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
 </sst>
 </file>
@@ -88,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,21 +108,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,15 +138,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,38 +206,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,38 +231,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,13 +252,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,139 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,9 +448,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,21 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -523,11 +507,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,129 +528,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,19 +677,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,8 +1021,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1116,7 +1113,6 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -1134,52 +1130,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5982142857143" customWidth="1"/>
     <col min="2" max="2" width="48.2053571428571" customWidth="1"/>
     <col min="3" max="3" width="9.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4">
-        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/tools/page_list.xlsx
+++ b/tools/page_list.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="page_list" sheetId="1" r:id="rId1"/>
     <sheet name="group_info" sheetId="2" r:id="rId2"/>
+    <sheet name="其他样式" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
   <si>
     <t>group</t>
   </si>
@@ -32,52 +33,580 @@
     <t>icon</t>
   </si>
   <si>
-    <t>搜索引擎</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>www.baidu.com</t>
+    <t>阅读物</t>
+  </si>
+  <si>
+    <t>《雪崩》</t>
+  </si>
+  <si>
+    <t>Amazon-“20世纪经典的20本科幻和奇幻小说”，美国《时代周刊》-“100部优秀英语小说”，雨果奖桂冠作家力作，豆瓣评分8.3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.cn/s?k=%E9%9B%AA%E5%B4%A9</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>FontAwesome</t>
+  </si>
+  <si>
+    <t>体验</t>
+  </si>
+  <si>
+    <t>相关性</t>
+  </si>
+  <si>
+    <t>发现平台</t>
+  </si>
+  <si>
+    <t>经济系统</t>
+  </si>
+  <si>
+    <t>空间计算</t>
+  </si>
+  <si>
+    <t>去中心化</t>
+  </si>
+  <si>
+    <t>人机交互</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>fortnite-堡垒之夜-epic games</t>
+  </si>
+  <si>
+    <t>https://www.epicgames.com/fortnite/en-US/home</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>https://unity.cn/</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>oculus</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>niantic labs-精灵宝可梦工作室</t>
+  </si>
+  <si>
+    <t>https://nianticlabs.com/</t>
+  </si>
+  <si>
+    <t>epic games</t>
+  </si>
+  <si>
+    <t>autodesk</t>
+  </si>
+  <si>
+    <t>https://www.autodesk.com.cn/</t>
+  </si>
+  <si>
+    <t>ava labs</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>wave</t>
   </si>
   <si>
     <t>google</t>
   </si>
   <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>qq邮箱</t>
-  </si>
-  <si>
-    <t>mail.qq.com</t>
-  </si>
-  <si>
-    <t>gmail邮箱</t>
-  </si>
-  <si>
-    <t>mail.google.com</t>
-  </si>
-  <si>
-    <t>友情链接</t>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>github.com</t>
-  </si>
-  <si>
-    <t>group_name</t>
-  </si>
-  <si>
-    <t>FontAwesome</t>
+    <t>roblox</t>
+  </si>
+  <si>
+    <t>unreal engine</t>
+  </si>
+  <si>
+    <t>https://www.unrealengine.com/zh-CN/</t>
+  </si>
+  <si>
+    <t>ibm</t>
+  </si>
+  <si>
+    <t>xbox</t>
+  </si>
+  <si>
+    <t>nvida</t>
+  </si>
+  <si>
+    <t>riot games</t>
+  </si>
+  <si>
+    <t>https://www.riotgames.com/</t>
+  </si>
+  <si>
+    <t>beamable</t>
+  </si>
+  <si>
+    <t>https://www.beamable.com/</t>
+  </si>
+  <si>
+    <t>descartes labs</t>
+  </si>
+  <si>
+    <t>webassembly</t>
+  </si>
+  <si>
+    <t>play station</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>zepeto</t>
+  </si>
+  <si>
+    <t>https://studio.zepeto.me/cn</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>ominiverse-英伟达旗下概念创作平台</t>
+  </si>
+  <si>
+    <t>https://www.nvidia.com/en-us/omniverse/enterprise/</t>
+  </si>
+  <si>
+    <t>immutable</t>
+  </si>
+  <si>
+    <t>nintendo</t>
+  </si>
+  <si>
+    <t>dfinity</t>
+  </si>
+  <si>
+    <t>ubisoft</t>
+  </si>
+  <si>
+    <t>https://zh-cn.ubisoft.com/</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>improbable-英国游戏技术开发公司</t>
+  </si>
+  <si>
+    <t>http://www.improbable.cn/</t>
+  </si>
+  <si>
+    <t>cocos-游戏开发引擎</t>
+  </si>
+  <si>
+    <t>https://www.cocos.com/</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>amd</t>
+  </si>
+  <si>
+    <t>together labs-avatar</t>
+  </si>
+  <si>
+    <t>google play</t>
+  </si>
+  <si>
+    <t>manticore</t>
+  </si>
+  <si>
+    <t>https://www.manticoregames.com/</t>
+  </si>
+  <si>
+    <t>matterport-实体场景数字化厂商</t>
+  </si>
+  <si>
+    <t>https://matterport.com/</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>microsoft hololens</t>
+  </si>
+  <si>
+    <t>marvell</t>
+  </si>
+  <si>
+    <t>fable studio</t>
+  </si>
+  <si>
+    <t>xsolla</t>
+  </si>
+  <si>
+    <t>https://xsolla.com/</t>
+  </si>
+  <si>
+    <t>google ai</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>qualcomm</t>
+  </si>
+  <si>
+    <t>embrace group-瑞典游戏厂商</t>
+  </si>
+  <si>
+    <t>https://embracer.com/</t>
+  </si>
+  <si>
+    <t>stadia</t>
+  </si>
+  <si>
+    <t>open ai</t>
+  </si>
+  <si>
+    <t>dapper</t>
+  </si>
+  <si>
+    <t>huawei</t>
+  </si>
+  <si>
+    <t>qorvo</t>
+  </si>
+  <si>
+    <t>ncsoft-韩国游戏厂商</t>
+  </si>
+  <si>
+    <t>https://kr.ncsoft.com/</t>
+  </si>
+  <si>
+    <t>itch.io</t>
+  </si>
+  <si>
+    <t>sanbox</t>
+  </si>
+  <si>
+    <t>niantic</t>
+  </si>
+  <si>
+    <t>enjin</t>
+  </si>
+  <si>
+    <t>vive</t>
+  </si>
+  <si>
+    <t>skyworks</t>
+  </si>
+  <si>
+    <t>minecraft</t>
+  </si>
+  <si>
+    <t>https://www.minecraft.net/zh-hans</t>
+  </si>
+  <si>
+    <t>applovin</t>
+  </si>
+  <si>
+    <t>mod.io-跨端ugc平台</t>
+  </si>
+  <si>
+    <t>https://mod.io/</t>
+  </si>
+  <si>
+    <t>cesium-3d地理方正</t>
+  </si>
+  <si>
+    <t>https://www.cesium.com/</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
+  </si>
+  <si>
+    <t>neuralink</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>https://www.ea.com/zh-cn</t>
+  </si>
+  <si>
+    <t>ironsource</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>occipital-深度传感视觉</t>
+  </si>
+  <si>
+    <t>https://occipital.com/</t>
+  </si>
+  <si>
+    <t>algorand</t>
+  </si>
+  <si>
+    <t>lightform</t>
+  </si>
+  <si>
+    <t>verizon</t>
+  </si>
+  <si>
+    <t>tencent</t>
+  </si>
+  <si>
+    <t>n3twork</t>
+  </si>
+  <si>
+    <t>skillz</t>
+  </si>
+  <si>
+    <t>ef eve-vr场景制作软件</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/774721/EF_EVE__Volumetric_Video_Platform_VR__Desktop/?l=english</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>vuzix</t>
+  </si>
+  <si>
+    <t>T mobile</t>
+  </si>
+  <si>
+    <t>playstation</t>
+  </si>
+  <si>
+    <t>vungle</t>
+  </si>
+  <si>
+    <t>genvid</t>
+  </si>
+  <si>
+    <t>presenz</t>
+  </si>
+  <si>
+    <t>https://www.presenzvr.com/</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>nreal</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>upland-企业软件</t>
+  </si>
+  <si>
+    <t>https://uplandsoftware.com/</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>moz://a - 火狐旗下</t>
+  </si>
+  <si>
+    <t>https://blog.mozilla.org/opendesign/</t>
+  </si>
+  <si>
+    <t>polkadot</t>
+  </si>
+  <si>
+    <t>raer</t>
+  </si>
+  <si>
+    <t>edgegap</t>
+  </si>
+  <si>
+    <t>xbox game studios</t>
+  </si>
+  <si>
+    <t>https://www.xbox.com/en-US/xbox-game-studios</t>
+  </si>
+  <si>
+    <t>decentraland</t>
+  </si>
+  <si>
+    <t>众趣</t>
+  </si>
+  <si>
+    <t>https://www.3dnest.cn/VR?sdclkid=AL2N152RbSDlAJDixLo&amp;bd_vid=11804006127645894571</t>
+  </si>
+  <si>
+    <t>cardano</t>
+  </si>
+  <si>
+    <t>magic leap</t>
+  </si>
+  <si>
+    <t>fastly</t>
+  </si>
+  <si>
+    <t>netease games</t>
+  </si>
+  <si>
+    <t>polystream</t>
+  </si>
+  <si>
+    <t>opensea</t>
+  </si>
+  <si>
+    <t>avegant</t>
+  </si>
+  <si>
+    <t>akamai</t>
+  </si>
+  <si>
+    <t>nexon-韩国游戏厂商，泡泡堂，跑跑卡丁车等</t>
+  </si>
+  <si>
+    <t>https://www.nexon.com/Home/Game</t>
+  </si>
+  <si>
+    <t>buildbox</t>
+  </si>
+  <si>
+    <t>evernym</t>
+  </si>
+  <si>
+    <t>amazon alexa</t>
+  </si>
+  <si>
+    <t>cloudflare</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>superworld</t>
+  </si>
+  <si>
+    <t>makersplace</t>
+  </si>
+  <si>
+    <t>agora</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>https://www.2k.com/</t>
+  </si>
+  <si>
+    <t>gravity sketch</t>
+  </si>
+  <si>
+    <t>superrare</t>
+  </si>
+  <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
+    <t>valve-v社；半条命、dota2游戏厂商</t>
+  </si>
+  <si>
+    <t>https://www.valvesoftware.com/zh-cn/</t>
+  </si>
+  <si>
+    <t>subspace</t>
+  </si>
+  <si>
+    <t>crucible</t>
+  </si>
+  <si>
+    <t>equinix</t>
+  </si>
+  <si>
+    <t>wargaming.net</t>
+  </si>
+  <si>
+    <t>https://asia.wargaming.net/en</t>
+  </si>
+  <si>
+    <t>digital realty</t>
+  </si>
+  <si>
+    <t>莉莉丝</t>
+  </si>
+  <si>
+    <t>https://www.lilithgames.com/</t>
+  </si>
+  <si>
+    <t>米哈游</t>
+  </si>
+  <si>
+    <t>https://www.mihoyo.com/</t>
+  </si>
+  <si>
+    <t>supernatural-vr健身应用</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>spatial-3d创作平台</t>
+  </si>
+  <si>
+    <t>https://www.zoe.com/</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>theta.tv</t>
+  </si>
+  <si>
+    <t>https://www.theta.tv/</t>
+  </si>
+  <si>
+    <t>clubh</t>
+  </si>
+  <si>
+    <t>snapchat</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>https://zoom.us/</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>twitch</t>
   </si>
 </sst>
 </file>
@@ -85,15 +614,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,37 +647,22 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,7 +674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,19 +688,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,29 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,11 +743,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,8 +786,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,19 +812,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,139 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,20 +1026,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +1048,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,24 +1068,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +1087,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,161 +1112,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,13 +1612,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="42.8482142857143" customWidth="1"/>
@@ -1060,68 +1653,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="www.google.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1130,13 +1666,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5982142857143" customWidth="1"/>
     <col min="2" max="2" width="48.2053571428571" customWidth="1"/>
@@ -1145,29 +1681,1242 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:U36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.epicgames.com/fortnite/en-US/home" tooltip="https://www.epicgames.com/fortnite/en-US/home"/>
+    <hyperlink ref="K2" r:id="rId2" display="https://unity.cn/" tooltip="https://unity.cn/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://nianticlabs.com/" tooltip="https://nianticlabs.com/"/>
+    <hyperlink ref="K3" r:id="rId4" display="https://www.autodesk.com.cn/" tooltip="https://www.autodesk.com.cn/"/>
+    <hyperlink ref="K4" r:id="rId5" display="https://www.unrealengine.com/zh-CN/" tooltip="https://www.unrealengine.com/zh-CN/"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.riotgames.com/" tooltip="https://www.riotgames.com/"/>
+    <hyperlink ref="H5" r:id="rId7" display="https://www.beamable.com/" tooltip="https://www.beamable.com/"/>
+    <hyperlink ref="B6" r:id="rId8" display="https://studio.zepeto.me/cn" tooltip="https://studio.zepeto.me/cn"/>
+    <hyperlink ref="K6" r:id="rId9" display="https://www.nvidia.com/en-us/omniverse/enterprise/" tooltip="https://www.nvidia.com/en-us/omniverse/enterprise/"/>
+    <hyperlink ref="B7" r:id="rId10" display="https://zh-cn.ubisoft.com/" tooltip="https://zh-cn.ubisoft.com/"/>
+    <hyperlink ref="H7" r:id="rId11" display="http://www.improbable.cn/" tooltip="http://www.improbable.cn/"/>
+    <hyperlink ref="K7" r:id="rId12" display="https://www.cocos.com/" tooltip="https://www.cocos.com/"/>
+    <hyperlink ref="H8" r:id="rId13" display="https://www.manticoregames.com/" tooltip="https://www.manticoregames.com/"/>
+    <hyperlink ref="K8" r:id="rId14" display="https://matterport.com/" tooltip="https://matterport.com/"/>
+    <hyperlink ref="H9" r:id="rId15" display="https://xsolla.com/" tooltip="https://xsolla.com/"/>
+    <hyperlink ref="B10" r:id="rId16" display="https://embracer.com/" tooltip="https://embracer.com/"/>
+    <hyperlink ref="B11" r:id="rId17" display="https://kr.ncsoft.com/" tooltip="https://kr.ncsoft.com/"/>
+    <hyperlink ref="B12" r:id="rId18" display="https://www.minecraft.net/zh-hans" tooltip="https://www.minecraft.net/zh-hans"/>
+    <hyperlink ref="H12" r:id="rId19" display="https://mod.io/" tooltip="https://mod.io/"/>
+    <hyperlink ref="K12" r:id="rId20" display="https://www.cesium.com/" tooltip="https://www.cesium.com/"/>
+    <hyperlink ref="B13" r:id="rId21" display="https://www.ea.com/zh-cn" tooltip="https://www.ea.com/zh-cn"/>
+    <hyperlink ref="K13" r:id="rId22" display="https://occipital.com/" tooltip="https://occipital.com/"/>
+    <hyperlink ref="K14" r:id="rId23" display="https://store.steampowered.com/app/774721/EF_EVE__Volumetric_Video_Platform_VR__Desktop/?l=english" tooltip="https://store.steampowered.com/app/774721/EF_EVE__Volumetric_Video_Platform_VR__Desktop/?l=english"/>
+    <hyperlink ref="K15" r:id="rId24" display="https://www.presenzvr.com/" tooltip="https://www.presenzvr.com/"/>
+    <hyperlink ref="B16" r:id="rId25" display="https://uplandsoftware.com/" tooltip="https://uplandsoftware.com/"/>
+    <hyperlink ref="K16" r:id="rId26" display="https://blog.mozilla.org/opendesign/" tooltip="https://blog.mozilla.org/opendesign/"/>
+    <hyperlink ref="B17" r:id="rId27" display="https://www.xbox.com/en-US/xbox-game-studios" tooltip="https://www.xbox.com/en-US/xbox-game-studios"/>
+    <hyperlink ref="B19" r:id="rId28" display="https://www.nexon.com/Home/Game" tooltip="https://www.nexon.com/Home/Game"/>
+    <hyperlink ref="B21" r:id="rId29" display="https://www.2k.com/" tooltip="https://www.2k.com/"/>
+    <hyperlink ref="B22" r:id="rId30" display="https://www.valvesoftware.com/zh-cn/" tooltip="https://www.valvesoftware.com/zh-cn/"/>
+    <hyperlink ref="B23" r:id="rId31" display="https://asia.wargaming.net/en" tooltip="https://asia.wargaming.net/en"/>
+    <hyperlink ref="B24" r:id="rId32" display="https://www.lilithgames.com/" tooltip="https://www.lilithgames.com/"/>
+    <hyperlink ref="B25" r:id="rId33" display="https://www.mihoyo.com/" tooltip="https://www.mihoyo.com/"/>
+    <hyperlink ref="B28" r:id="rId34" display="https://www.zoe.com/" tooltip="https://www.zoe.com/"/>
+    <hyperlink ref="B31" r:id="rId35" display="https://www.theta.tv/" tooltip="https://www.theta.tv/"/>
+    <hyperlink ref="B34" r:id="rId36" display="https://zoom.us/" tooltip="https://zoom.us/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>